--- a/Cliente.xlsx
+++ b/Cliente.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="19095" windowHeight="9735"/>
+    <workbookView xWindow="120" yWindow="50" windowWidth="19100" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Cliente</t>
   </si>
@@ -49,9 +49,6 @@
     <t>RG</t>
   </si>
   <si>
-    <t>22222222222222</t>
-  </si>
-  <si>
     <t>11111111111</t>
   </si>
   <si>
@@ -80,13 +77,19 @@
   </si>
   <si>
     <t>Bruninho</t>
+  </si>
+  <si>
+    <t>47499123871</t>
+  </si>
+  <si>
+    <t>4749912387</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +109,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,13 +154,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -448,31 +460,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" ht="15.5">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -508,10 +520,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -519,7 +531,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -528,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -539,7 +551,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -548,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -559,19 +571,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -579,7 +591,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
@@ -588,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -599,19 +611,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>10</v>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -619,7 +631,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
@@ -628,10 +640,10 @@
         <v>9</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5"/>
     </row>
@@ -640,19 +652,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -660,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>8</v>
@@ -669,10 +681,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -690,7 +702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -702,7 +714,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -714,7 +726,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Cliente.xlsx
+++ b/Cliente.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="50" windowWidth="19100" windowHeight="9740"/>
+    <workbookView xWindow="80" yWindow="20" windowWidth="19100" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="Plan4" sheetId="4" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="12">
   <si>
     <t>Cliente</t>
   </si>
@@ -40,56 +40,26 @@
     <t>telefone</t>
   </si>
   <si>
-    <t>Vinicius</t>
+    <t>Mascarani</t>
   </si>
   <si>
     <t>M</t>
   </si>
   <si>
-    <t>RG</t>
-  </si>
-  <si>
-    <t>11111111111</t>
-  </si>
-  <si>
-    <t>Izauir</t>
-  </si>
-  <si>
-    <t>Bruno Rodrigues</t>
-  </si>
-  <si>
-    <t>Armando</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>CPF</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Cleber</t>
-  </si>
-  <si>
-    <t>Bruninho</t>
   </si>
   <si>
     <t>47499123871</t>
   </si>
   <si>
-    <t>4749912387</t>
+    <t>99999999999</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,14 +79,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,16 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,51 +417,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7265625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.81640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -510,181 +468,1940 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>10</v>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="B15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="B16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="B17" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="B22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>10</v>
+      <c r="B23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
